--- a/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy Sympy = Ans.xlsx
+++ b/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy Sympy = Ans.xlsx
@@ -161,10 +161,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -234,60 +234,6 @@
                 </c:pt>
                 <c:pt idx="30">
                   <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -389,60 +335,6 @@
                   <c:v>0.04487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="48">
                   <c:v>0.0448</c:v>
                 </c:pt>
               </c:numCache>
@@ -553,10 +445,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -638,48 +530,6 @@
                 </c:pt>
                 <c:pt idx="34">
                   <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -793,48 +643,6 @@
                   <c:v>0.02923976608187134</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="48">
                   <c:v>0.0448</c:v>
                 </c:pt>
               </c:numCache>
@@ -945,10 +753,10 @@
                   <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6</c:v>
+                  <c:v>0.6000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7</c:v>
+                  <c:v>0.7000000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0.8</c:v>
@@ -1015,63 +823,6 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>3.1</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.6</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.7</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>3.8</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>3.9</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>4.1</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>4.2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>4.3</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>4.4</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>4.5</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>4.6</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>4.7</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>4.8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1170,63 +921,6 @@
                   <c:v>0.04487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.0448</c:v>
-                </c:pt>
-                <c:pt idx="48">
                   <c:v>0.0448</c:v>
                 </c:pt>
               </c:numCache>
@@ -1669,7 +1363,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1799,7 +1493,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -1816,7 +1510,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -2216,329 +1910,6 @@
         <v>625</v>
       </c>
       <c r="E32" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <v>625</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>28</v>
-      </c>
-      <c r="D34" s="1">
-        <v>625</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1">
-        <v>625</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1">
-        <v>625</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C37" s="1">
-        <v>28</v>
-      </c>
-      <c r="D37" s="1">
-        <v>625</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>28</v>
-      </c>
-      <c r="D38" s="1">
-        <v>625</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C39" s="1">
-        <v>28</v>
-      </c>
-      <c r="D39" s="1">
-        <v>625</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1">
-        <v>625</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="C41" s="1">
-        <v>28</v>
-      </c>
-      <c r="D41" s="1">
-        <v>625</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>28</v>
-      </c>
-      <c r="D42" s="1">
-        <v>625</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4.1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1">
-        <v>625</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>28</v>
-      </c>
-      <c r="D44" s="1">
-        <v>625</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>28</v>
-      </c>
-      <c r="D45" s="1">
-        <v>625</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4.4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1">
-        <v>625</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C47" s="1">
-        <v>28</v>
-      </c>
-      <c r="D47" s="1">
-        <v>625</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4.6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>28</v>
-      </c>
-      <c r="D48" s="1">
-        <v>625</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="C49" s="1">
-        <v>28</v>
-      </c>
-      <c r="D49" s="1">
-        <v>625</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="C50" s="1">
-        <v>28</v>
-      </c>
-      <c r="D50" s="1">
-        <v>625</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="C51" s="1">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1">
-        <v>625</v>
-      </c>
-      <c r="E51" s="1">
         <v>0.0448</v>
       </c>
     </row>
@@ -2550,7 +1921,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2680,7 +2051,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>0</v>
@@ -2697,7 +2068,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>0</v>
@@ -3165,261 +2536,6 @@
         <v>625</v>
       </c>
       <c r="E36" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C37" s="1">
-        <v>28</v>
-      </c>
-      <c r="D37" s="1">
-        <v>625</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>28</v>
-      </c>
-      <c r="D38" s="1">
-        <v>625</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C39" s="1">
-        <v>28</v>
-      </c>
-      <c r="D39" s="1">
-        <v>625</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1">
-        <v>625</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="C41" s="1">
-        <v>28</v>
-      </c>
-      <c r="D41" s="1">
-        <v>625</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>28</v>
-      </c>
-      <c r="D42" s="1">
-        <v>625</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4.1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1">
-        <v>625</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>28</v>
-      </c>
-      <c r="D44" s="1">
-        <v>625</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>28</v>
-      </c>
-      <c r="D45" s="1">
-        <v>625</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4.4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1">
-        <v>625</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C47" s="1">
-        <v>28</v>
-      </c>
-      <c r="D47" s="1">
-        <v>625</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4.6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>28</v>
-      </c>
-      <c r="D48" s="1">
-        <v>625</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="C49" s="1">
-        <v>28</v>
-      </c>
-      <c r="D49" s="1">
-        <v>625</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="C50" s="1">
-        <v>28</v>
-      </c>
-      <c r="D50" s="1">
-        <v>625</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="C51" s="1">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1">
-        <v>625</v>
-      </c>
-      <c r="E51" s="1">
         <v>0.0448</v>
       </c>
     </row>
@@ -3431,7 +2547,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -3561,7 +2677,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="C8" s="1">
         <v>7</v>
@@ -3578,7 +2694,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7</v>
+        <v>0.7000000000000001</v>
       </c>
       <c r="C9" s="1">
         <v>7</v>
@@ -3961,346 +3077,6 @@
         <v>625</v>
       </c>
       <c r="E31" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>28</v>
-      </c>
-      <c r="D32" s="1">
-        <v>625</v>
-      </c>
-      <c r="E32" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2">
-        <v>31</v>
-      </c>
-      <c r="B33" s="1">
-        <v>3.1</v>
-      </c>
-      <c r="C33" s="1">
-        <v>28</v>
-      </c>
-      <c r="D33" s="1">
-        <v>625</v>
-      </c>
-      <c r="E33" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" s="2">
-        <v>32</v>
-      </c>
-      <c r="B34" s="1">
-        <v>3.2</v>
-      </c>
-      <c r="C34" s="1">
-        <v>28</v>
-      </c>
-      <c r="D34" s="1">
-        <v>625</v>
-      </c>
-      <c r="E34" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>28</v>
-      </c>
-      <c r="D35" s="1">
-        <v>625</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1">
-        <v>625</v>
-      </c>
-      <c r="E36" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" s="2">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1">
-        <v>3.5</v>
-      </c>
-      <c r="C37" s="1">
-        <v>28</v>
-      </c>
-      <c r="D37" s="1">
-        <v>625</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5">
-      <c r="A38" s="2">
-        <v>36</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3.6</v>
-      </c>
-      <c r="C38" s="1">
-        <v>28</v>
-      </c>
-      <c r="D38" s="1">
-        <v>625</v>
-      </c>
-      <c r="E38" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
-      <c r="A39" s="2">
-        <v>37</v>
-      </c>
-      <c r="B39" s="1">
-        <v>3.7</v>
-      </c>
-      <c r="C39" s="1">
-        <v>28</v>
-      </c>
-      <c r="D39" s="1">
-        <v>625</v>
-      </c>
-      <c r="E39" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
-      <c r="A40" s="2">
-        <v>38</v>
-      </c>
-      <c r="B40" s="1">
-        <v>3.8</v>
-      </c>
-      <c r="C40" s="1">
-        <v>28</v>
-      </c>
-      <c r="D40" s="1">
-        <v>625</v>
-      </c>
-      <c r="E40" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
-      <c r="A41" s="2">
-        <v>39</v>
-      </c>
-      <c r="B41" s="1">
-        <v>3.9</v>
-      </c>
-      <c r="C41" s="1">
-        <v>28</v>
-      </c>
-      <c r="D41" s="1">
-        <v>625</v>
-      </c>
-      <c r="E41" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
-      <c r="A42" s="2">
-        <v>40</v>
-      </c>
-      <c r="B42" s="1">
-        <v>4</v>
-      </c>
-      <c r="C42" s="1">
-        <v>28</v>
-      </c>
-      <c r="D42" s="1">
-        <v>625</v>
-      </c>
-      <c r="E42" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
-      <c r="A43" s="2">
-        <v>41</v>
-      </c>
-      <c r="B43" s="1">
-        <v>4.1</v>
-      </c>
-      <c r="C43" s="1">
-        <v>28</v>
-      </c>
-      <c r="D43" s="1">
-        <v>625</v>
-      </c>
-      <c r="E43" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2">
-        <v>42</v>
-      </c>
-      <c r="B44" s="1">
-        <v>4.2</v>
-      </c>
-      <c r="C44" s="1">
-        <v>28</v>
-      </c>
-      <c r="D44" s="1">
-        <v>625</v>
-      </c>
-      <c r="E44" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
-      <c r="A45" s="2">
-        <v>43</v>
-      </c>
-      <c r="B45" s="1">
-        <v>4.3</v>
-      </c>
-      <c r="C45" s="1">
-        <v>28</v>
-      </c>
-      <c r="D45" s="1">
-        <v>625</v>
-      </c>
-      <c r="E45" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="2">
-        <v>44</v>
-      </c>
-      <c r="B46" s="1">
-        <v>4.4</v>
-      </c>
-      <c r="C46" s="1">
-        <v>28</v>
-      </c>
-      <c r="D46" s="1">
-        <v>625</v>
-      </c>
-      <c r="E46" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="2">
-        <v>45</v>
-      </c>
-      <c r="B47" s="1">
-        <v>4.5</v>
-      </c>
-      <c r="C47" s="1">
-        <v>28</v>
-      </c>
-      <c r="D47" s="1">
-        <v>625</v>
-      </c>
-      <c r="E47" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2">
-        <v>46</v>
-      </c>
-      <c r="B48" s="1">
-        <v>4.6</v>
-      </c>
-      <c r="C48" s="1">
-        <v>28</v>
-      </c>
-      <c r="D48" s="1">
-        <v>625</v>
-      </c>
-      <c r="E48" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2">
-        <v>47</v>
-      </c>
-      <c r="B49" s="1">
-        <v>4.7</v>
-      </c>
-      <c r="C49" s="1">
-        <v>28</v>
-      </c>
-      <c r="D49" s="1">
-        <v>625</v>
-      </c>
-      <c r="E49" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="2">
-        <v>48</v>
-      </c>
-      <c r="B50" s="1">
-        <v>4.8</v>
-      </c>
-      <c r="C50" s="1">
-        <v>28</v>
-      </c>
-      <c r="D50" s="1">
-        <v>625</v>
-      </c>
-      <c r="E50" s="1">
-        <v>0.0448</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="2">
-        <v>49</v>
-      </c>
-      <c r="B51" s="1">
-        <v>4.9</v>
-      </c>
-      <c r="C51" s="1">
-        <v>28</v>
-      </c>
-      <c r="D51" s="1">
-        <v>625</v>
-      </c>
-      <c r="E51" s="1">
         <v>0.0448</v>
       </c>
     </row>

--- a/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy Sympy = Ans.xlsx
+++ b/06-03-2023/data/output/xlsx/Entropy-Failure (LEQ)/Entropy Sympy = Ans.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="4">
   <si>
-    <t>leq_value</t>
+    <t>geq_value</t>
   </si>
   <si>
     <t>number of incorrect</t>
@@ -146,94 +146,76 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.646439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.5</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.6</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.7</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.8</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.9</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2.921928094887362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,93 +230,75 @@
                   <c:v>0.0125</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.0125</c:v>
+                  <c:v>0.01565995525727069</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.0125</c:v>
+                  <c:v>0.01505376344086022</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.0125</c:v>
+                  <c:v>0.01698513800424628</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0125</c:v>
+                  <c:v>0.017578125</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.01565995525727069</c:v>
+                  <c:v>0.02131782945736434</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.01565995525727069</c:v>
+                  <c:v>0.02476190476190476</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.01565995525727069</c:v>
+                  <c:v>0.02448210922787194</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.01505376344086022</c:v>
+                  <c:v>0.02664298401420959</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01698513800424628</c:v>
+                  <c:v>0.02816901408450704</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02131782945736434</c:v>
+                  <c:v>0.0281195079086116</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02131782945736434</c:v>
+                  <c:v>0.02951388888888889</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02476190476190476</c:v>
+                  <c:v>0.03270223752151463</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02448210922787194</c:v>
+                  <c:v>0.03678929765886288</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.0281195079086116</c:v>
+                  <c:v>0.03672787979966611</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0281195079086116</c:v>
+                  <c:v>0.03618421052631579</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02951388888888889</c:v>
+                  <c:v>0.03770491803278689</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03270223752151463</c:v>
+                  <c:v>0.03752039151712887</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03678929765886288</c:v>
+                  <c:v>0.03908794788273615</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03672787979966611</c:v>
+                  <c:v>0.03896103896103896</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.03618421052631579</c:v>
+                  <c:v>0.04051863857374392</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.03770491803278689</c:v>
+                  <c:v>0.04032258064516129</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.03908794788273615</c:v>
+                  <c:v>0.04333868378812199</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.03908794788273615</c:v>
+                  <c:v>0.04487179487179487</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0.03896103896103896</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.04051863857374392</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.04032258064516129</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.04333868378812199</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.04333868378812199</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.04487179487179487</c:v>
-                </c:pt>
-                <c:pt idx="30">
                   <c:v>0.0448</c:v>
                 </c:pt>
               </c:numCache>
@@ -430,106 +394,100 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.895461844238321</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>2.160964047443681</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>2.170950594454669</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.246439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.646439344671015</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>3</c:v>
+                  <c:v>2.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>3.1</c:v>
+                  <c:v>3.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>3.2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>3.3</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>3.4</c:v>
+                  <c:v>3.321928094887362</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -553,64 +511,64 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.04</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.02941176470588235</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.02631578947368421</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.03508771929824561</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.03448275862068965</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.02941176470588235</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.04</c:v>
+                  <c:v>0.02702702702702703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.04</c:v>
+                  <c:v>0.02597402597402598</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02941176470588235</c:v>
+                  <c:v>0.02564102564102564</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02631578947368421</c:v>
+                  <c:v>0.03669724770642202</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.03508771929824561</c:v>
+                  <c:v>0.03636363636363636</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.03448275862068965</c:v>
+                  <c:v>0.03603603603603604</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02941176470588235</c:v>
+                  <c:v>0.02962962962962963</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.02702702702702703</c:v>
+                  <c:v>0.02777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0.03669724770642202</c:v>
+                  <c:v>0.03378378378378379</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0.03603603603603604</c:v>
+                  <c:v>0.02777777777777778</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0.02962962962962963</c:v>
+                  <c:v>0.02747252747252747</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0.02777777777777778</c:v>
+                  <c:v>0.0273224043715847</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0.0273224043715847</c:v>
+                  <c:v>0.02717391304347826</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0.02717391304347826</c:v>
+                  <c:v>0.02380952380952381</c:v>
                 </c:pt>
                 <c:pt idx="24">
                   <c:v>0.0273972602739726</c:v>
@@ -634,15 +592,9 @@
                   <c:v>0.02137767220902613</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0.02137767220902613</c:v>
+                  <c:v>0.02923976608187134</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0.02923976608187134</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.02923976608187134</c:v>
-                </c:pt>
-                <c:pt idx="34">
                   <c:v>0.0448</c:v>
                 </c:pt>
               </c:numCache>
@@ -738,91 +690,97 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.1</c:v>
+                  <c:v>0.4689955935892811</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.2</c:v>
+                  <c:v>0.7219280948873621</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3</c:v>
+                  <c:v>0.881290899230692</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.4</c:v>
+                  <c:v>0.921928094887362</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.5</c:v>
+                  <c:v>0.970950594454668</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.6000000000000001</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.7000000000000001</c:v>
+                  <c:v>1.156779649447039</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.8</c:v>
+                  <c:v>1.295461844238322</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.9</c:v>
+                  <c:v>1.356779649447039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1</c:v>
+                  <c:v>1.360964047443681</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.1</c:v>
+                  <c:v>1.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.2</c:v>
+                  <c:v>1.485475297227334</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3</c:v>
+                  <c:v>1.521928094887362</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.4</c:v>
+                  <c:v>1.570950594454668</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.5</c:v>
+                  <c:v>1.685475297227334</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.6</c:v>
+                  <c:v>1.721928094887362</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.7</c:v>
+                  <c:v>1.760964047443681</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.8</c:v>
+                  <c:v>1.770950594454668</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.9</c:v>
+                  <c:v>1.846439344671015</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>2</c:v>
+                  <c:v>1.895461844238321</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>2.1</c:v>
+                  <c:v>1.960964047443681</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>2.2</c:v>
+                  <c:v>2.046439344671015</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>2.3</c:v>
+                  <c:v>2.121928094887362</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>2.4</c:v>
+                  <c:v>2.170950594454668</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>2.5</c:v>
+                  <c:v>2.246439344671015</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>2.6</c:v>
+                  <c:v>2.321928094887362</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>2.7</c:v>
+                  <c:v>2.370950594454668</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>2.8</c:v>
+                  <c:v>2.446439344671015</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>2.9</c:v>
+                  <c:v>2.521928094887362</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.646439344671015</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.846439344671015</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -837,90 +795,96 @@
                   <c:v>0.005181347150259068</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.005181347150259068</c:v>
+                  <c:v>0.02034883720930233</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.005181347150259068</c:v>
+                  <c:v>0.02077922077922078</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.005181347150259068</c:v>
+                  <c:v>0.01913875598086124</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.005181347150259068</c:v>
+                  <c:v>0.02145922746781116</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.02034883720930233</c:v>
+                  <c:v>0.02254098360655738</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.02034883720930233</c:v>
+                  <c:v>0.02217741935483871</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.02034883720930233</c:v>
+                  <c:v>0.02312138728323699</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.02077922077922078</c:v>
+                  <c:v>0.02247191011235955</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.01913875598086124</c:v>
+                  <c:v>0.02372262773722628</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.02217741935483871</c:v>
+                  <c:v>0.02508960573476703</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.02217741935483871</c:v>
+                  <c:v>0.02486678507992895</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0.02312138728323699</c:v>
+                  <c:v>0.0265017667844523</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0.02247191011235955</c:v>
+                  <c:v>0.02640845070422535</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.02486678507992895</c:v>
+                  <c:v>0.02910958904109589</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.0265017667844523</c:v>
+                  <c:v>0.03225806451612903</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0.02910958904109589</c:v>
+                  <c:v>0.03209459459459459</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0.03225806451612903</c:v>
+                  <c:v>0.03361344537815126</c:v>
                 </c:pt>
                 <c:pt idx="18">
                   <c:v>0.0350584307178631</c:v>
                 </c:pt>
                 <c:pt idx="19">
+                  <c:v>0.03660565723793677</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>0.03654485049833887</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="21">
                   <c:v>0.03630363036303631</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="22">
                   <c:v>0.03624382207578253</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="23">
+                  <c:v>0.03770491803278689</c:v>
+                </c:pt>
+                <c:pt idx="24">
                   <c:v>0.03927986906710311</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="25">
                   <c:v>0.0392156862745098</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="26">
+                  <c:v>0.03896103896103896</c:v>
+                </c:pt>
+                <c:pt idx="27">
                   <c:v>0.04207119741100324</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="28">
                   <c:v>0.04347826086956522</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="29">
                   <c:v>0.04340836012861737</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="30">
                   <c:v>0.04487179487179487</c:v>
                 </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.04487179487179487</c:v>
-                </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="31">
                   <c:v>0.0448</c:v>
                 </c:pt>
               </c:numCache>
@@ -1363,7 +1327,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H32"/>
+  <dimension ref="A1:H26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1408,16 +1372,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>320</v>
+        <v>447</v>
       </c>
       <c r="E3" s="1">
-        <v>0.0125</v>
+        <v>0.01565995525727069</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1425,16 +1389,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D4" s="1">
-        <v>320</v>
+        <v>465</v>
       </c>
       <c r="E4" s="1">
-        <v>0.0125</v>
+        <v>0.01505376344086022</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1442,16 +1406,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>320</v>
+        <v>471</v>
       </c>
       <c r="E5" s="1">
-        <v>0.0125</v>
+        <v>0.01698513800424628</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1459,16 +1423,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D6" s="1">
-        <v>320</v>
+        <v>512</v>
       </c>
       <c r="E6" s="1">
-        <v>0.0125</v>
+        <v>0.017578125</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1476,16 +1440,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>447</v>
+        <v>516</v>
       </c>
       <c r="E7" s="1">
-        <v>0.01565995525727069</v>
+        <v>0.02131782945736434</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1493,16 +1457,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="E8" s="1">
-        <v>0.01565995525727069</v>
+        <v>0.02476190476190476</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1510,16 +1474,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D9" s="1">
-        <v>447</v>
+        <v>531</v>
       </c>
       <c r="E9" s="1">
-        <v>0.01565995525727069</v>
+        <v>0.02448210922787194</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1527,16 +1491,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C10" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D10" s="1">
-        <v>465</v>
+        <v>563</v>
       </c>
       <c r="E10" s="1">
-        <v>0.01505376344086022</v>
+        <v>0.02664298401420959</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1544,16 +1508,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D11" s="1">
-        <v>471</v>
+        <v>568</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01698513800424628</v>
+        <v>0.02816901408450704</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1561,16 +1525,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D12" s="1">
-        <v>516</v>
+        <v>569</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02131782945736434</v>
+        <v>0.0281195079086116</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1578,16 +1542,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D13" s="1">
-        <v>516</v>
+        <v>576</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02131782945736434</v>
+        <v>0.02951388888888889</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1595,16 +1559,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C14" s="1">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D14" s="1">
-        <v>525</v>
+        <v>581</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02476190476190476</v>
+        <v>0.03270223752151463</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1612,16 +1576,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C15" s="1">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="D15" s="1">
-        <v>531</v>
+        <v>598</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02448210922787194</v>
+        <v>0.03678929765886288</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1629,16 +1593,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C16" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1">
-        <v>569</v>
+        <v>599</v>
       </c>
       <c r="E16" s="1">
-        <v>0.0281195079086116</v>
+        <v>0.03672787979966611</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1646,16 +1610,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C17" s="1">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="D17" s="1">
-        <v>569</v>
+        <v>608</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0281195079086116</v>
+        <v>0.03618421052631579</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1663,16 +1627,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D18" s="1">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02951388888888889</v>
+        <v>0.03770491803278689</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1680,16 +1644,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C19" s="1">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D19" s="1">
-        <v>581</v>
+        <v>613</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03270223752151463</v>
+        <v>0.03752039151712887</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1697,16 +1661,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C20" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D20" s="1">
-        <v>598</v>
+        <v>614</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03678929765886288</v>
+        <v>0.03908794788273615</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1714,16 +1678,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C21" s="1">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D21" s="1">
-        <v>599</v>
+        <v>616</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03672787979966611</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1731,16 +1695,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C22" s="1">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="D22" s="1">
-        <v>608</v>
+        <v>617</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03618421052631579</v>
+        <v>0.04051863857374392</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1748,16 +1712,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C23" s="1">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D23" s="1">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03770491803278689</v>
+        <v>0.04032258064516129</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1765,16 +1729,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.646439344671015</v>
       </c>
       <c r="C24" s="1">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D24" s="1">
-        <v>614</v>
+        <v>623</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03908794788273615</v>
+        <v>0.04333868378812199</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1782,16 +1746,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.846439344671015</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D25" s="1">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="E25" s="1">
-        <v>0.03908794788273615</v>
+        <v>0.04487179487179487</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1799,117 +1763,15 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.921928094887362</v>
       </c>
       <c r="C26" s="1">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="D26" s="1">
-        <v>616</v>
+        <v>625</v>
       </c>
       <c r="E26" s="1">
-        <v>0.03896103896103896</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" s="2">
-        <v>25</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.5</v>
-      </c>
-      <c r="C27" s="1">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>617</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.04051863857374392</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="2">
-        <v>26</v>
-      </c>
-      <c r="B28" s="1">
-        <v>2.6</v>
-      </c>
-      <c r="C28" s="1">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1">
-        <v>620</v>
-      </c>
-      <c r="E28" s="1">
-        <v>0.04032258064516129</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" s="2">
-        <v>27</v>
-      </c>
-      <c r="B29" s="1">
-        <v>2.7</v>
-      </c>
-      <c r="C29" s="1">
-        <v>27</v>
-      </c>
-      <c r="D29" s="1">
-        <v>623</v>
-      </c>
-      <c r="E29" s="1">
-        <v>0.04333868378812199</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" s="2">
-        <v>28</v>
-      </c>
-      <c r="B30" s="1">
-        <v>2.8</v>
-      </c>
-      <c r="C30" s="1">
-        <v>27</v>
-      </c>
-      <c r="D30" s="1">
-        <v>623</v>
-      </c>
-      <c r="E30" s="1">
-        <v>0.04333868378812199</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2">
-        <v>29</v>
-      </c>
-      <c r="B31" s="1">
-        <v>2.9</v>
-      </c>
-      <c r="C31" s="1">
-        <v>28</v>
-      </c>
-      <c r="D31" s="1">
-        <v>624</v>
-      </c>
-      <c r="E31" s="1">
-        <v>0.04487179487179487</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" s="2">
-        <v>30</v>
-      </c>
-      <c r="B32" s="1">
-        <v>3</v>
-      </c>
-      <c r="C32" s="1">
-        <v>28</v>
-      </c>
-      <c r="D32" s="1">
-        <v>625</v>
-      </c>
-      <c r="E32" s="1">
         <v>0.0448</v>
       </c>
     </row>
@@ -1921,7 +1783,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H34"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1966,13 +1828,13 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
         <v>0</v>
       </c>
       <c r="D3" s="1">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E3" s="1">
         <v>0</v>
@@ -1983,13 +1845,13 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
         <v>0</v>
       </c>
       <c r="D4" s="1">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="E4" s="1">
         <v>0</v>
@@ -2000,13 +1862,13 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
         <v>0</v>
       </c>
       <c r="D5" s="1">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E5" s="1">
         <v>0</v>
@@ -2017,16 +1879,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="1">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>0.04</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2034,16 +1896,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="1">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2051,16 +1913,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="1">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="E8" s="1">
-        <v>0</v>
+        <v>0.02631578947368421</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2068,16 +1930,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D9" s="1">
-        <v>12</v>
+        <v>57</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>0.03508771929824561</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2085,16 +1947,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D10" s="1">
-        <v>14</v>
+        <v>58</v>
       </c>
       <c r="E10" s="1">
-        <v>0</v>
+        <v>0.03448275862068965</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2102,16 +1964,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C11" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D11" s="1">
-        <v>15</v>
+        <v>68</v>
       </c>
       <c r="E11" s="1">
-        <v>0</v>
+        <v>0.02941176470588235</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2119,16 +1981,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D12" s="1">
-        <v>25</v>
+        <v>74</v>
       </c>
       <c r="E12" s="1">
-        <v>0.04</v>
+        <v>0.02702702702702703</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2136,16 +1998,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="1">
-        <v>25</v>
+        <v>77</v>
       </c>
       <c r="E13" s="1">
-        <v>0.04</v>
+        <v>0.02597402597402598</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2153,16 +2015,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D14" s="1">
-        <v>34</v>
+        <v>78</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02941176470588235</v>
+        <v>0.02564102564102564</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2170,16 +2032,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C15" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D15" s="1">
-        <v>38</v>
+        <v>109</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02631578947368421</v>
+        <v>0.03669724770642202</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2187,16 +2049,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C16" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D16" s="1">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E16" s="1">
-        <v>0.03508771929824561</v>
+        <v>0.03636363636363636</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2204,16 +2066,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.895461844238321</v>
       </c>
       <c r="C17" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="1">
-        <v>58</v>
+        <v>111</v>
       </c>
       <c r="E17" s="1">
-        <v>0.03448275862068965</v>
+        <v>0.03603603603603604</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2221,16 +2083,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C18" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="1">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02941176470588235</v>
+        <v>0.02962962962962963</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2238,16 +2100,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C19" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" s="1">
-        <v>74</v>
+        <v>144</v>
       </c>
       <c r="E19" s="1">
-        <v>0.02702702702702703</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2255,16 +2117,16 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C20" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D20" s="1">
-        <v>109</v>
+        <v>148</v>
       </c>
       <c r="E20" s="1">
-        <v>0.03669724770642202</v>
+        <v>0.03378378378378379</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -2272,16 +2134,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>2.160964047443681</v>
       </c>
       <c r="C21" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D21" s="1">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03603603603603604</v>
+        <v>0.02777777777777778</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2289,16 +2151,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C22" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D22" s="1">
-        <v>135</v>
+        <v>182</v>
       </c>
       <c r="E22" s="1">
-        <v>0.02962962962962963</v>
+        <v>0.02747252747252747</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2306,16 +2168,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>2.170950594454669</v>
       </c>
       <c r="C23" s="1">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D23" s="1">
-        <v>144</v>
+        <v>183</v>
       </c>
       <c r="E23" s="1">
-        <v>0.02777777777777778</v>
+        <v>0.0273224043715847</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2323,16 +2185,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.246439344671015</v>
       </c>
       <c r="C24" s="1">
         <v>5</v>
       </c>
       <c r="D24" s="1">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="E24" s="1">
-        <v>0.0273224043715847</v>
+        <v>0.02717391304347826</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2340,16 +2202,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C25" s="1">
         <v>5</v>
       </c>
       <c r="D25" s="1">
-        <v>184</v>
+        <v>210</v>
       </c>
       <c r="E25" s="1">
-        <v>0.02717391304347826</v>
+        <v>0.02380952380952381</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2357,7 +2219,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.370950594454668</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
@@ -2374,7 +2236,7 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C27" s="1">
         <v>6</v>
@@ -2391,7 +2253,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C28" s="1">
         <v>6</v>
@@ -2408,7 +2270,7 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.646439344671015</v>
       </c>
       <c r="C29" s="1">
         <v>6</v>
@@ -2425,7 +2287,7 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.721928094887362</v>
       </c>
       <c r="C30" s="1">
         <v>6</v>
@@ -2442,7 +2304,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9</v>
+        <v>2.846439344671015</v>
       </c>
       <c r="C31" s="1">
         <v>6</v>
@@ -2459,7 +2321,7 @@
         <v>30</v>
       </c>
       <c r="B32" s="1">
-        <v>3</v>
+        <v>2.921928094887362</v>
       </c>
       <c r="C32" s="1">
         <v>9</v>
@@ -2476,16 +2338,16 @@
         <v>31</v>
       </c>
       <c r="B33" s="1">
-        <v>3.1</v>
+        <v>3.121928094887362</v>
       </c>
       <c r="C33" s="1">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D33" s="1">
-        <v>421</v>
+        <v>513</v>
       </c>
       <c r="E33" s="1">
-        <v>0.02137767220902613</v>
+        <v>0.02923976608187134</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -2493,49 +2355,15 @@
         <v>32</v>
       </c>
       <c r="B34" s="1">
-        <v>3.2</v>
+        <v>3.321928094887362</v>
       </c>
       <c r="C34" s="1">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D34" s="1">
-        <v>513</v>
+        <v>625</v>
       </c>
       <c r="E34" s="1">
-        <v>0.02923976608187134</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" s="2">
-        <v>33</v>
-      </c>
-      <c r="B35" s="1">
-        <v>3.3</v>
-      </c>
-      <c r="C35" s="1">
-        <v>15</v>
-      </c>
-      <c r="D35" s="1">
-        <v>513</v>
-      </c>
-      <c r="E35" s="1">
-        <v>0.02923976608187134</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" s="2">
-        <v>34</v>
-      </c>
-      <c r="B36" s="1">
-        <v>3.4</v>
-      </c>
-      <c r="C36" s="1">
-        <v>28</v>
-      </c>
-      <c r="D36" s="1">
-        <v>625</v>
-      </c>
-      <c r="E36" s="1">
         <v>0.0448</v>
       </c>
     </row>
@@ -2547,7 +2375,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2592,16 +2420,16 @@
         <v>1</v>
       </c>
       <c r="B3" s="1">
-        <v>0.1</v>
+        <v>0.4689955935892811</v>
       </c>
       <c r="C3" s="1">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D3" s="1">
-        <v>193</v>
+        <v>344</v>
       </c>
       <c r="E3" s="1">
-        <v>0.005181347150259068</v>
+        <v>0.02034883720930233</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -2609,16 +2437,16 @@
         <v>2</v>
       </c>
       <c r="B4" s="1">
-        <v>0.2</v>
+        <v>0.7219280948873621</v>
       </c>
       <c r="C4" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D4" s="1">
-        <v>193</v>
+        <v>385</v>
       </c>
       <c r="E4" s="1">
-        <v>0.005181347150259068</v>
+        <v>0.02077922077922078</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -2626,16 +2454,16 @@
         <v>3</v>
       </c>
       <c r="B5" s="1">
-        <v>0.3</v>
+        <v>0.881290899230692</v>
       </c>
       <c r="C5" s="1">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D5" s="1">
-        <v>193</v>
+        <v>418</v>
       </c>
       <c r="E5" s="1">
-        <v>0.005181347150259068</v>
+        <v>0.01913875598086124</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -2643,16 +2471,16 @@
         <v>4</v>
       </c>
       <c r="B6" s="1">
-        <v>0.4</v>
+        <v>0.921928094887362</v>
       </c>
       <c r="C6" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
-        <v>193</v>
+        <v>466</v>
       </c>
       <c r="E6" s="1">
-        <v>0.005181347150259068</v>
+        <v>0.02145922746781116</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -2660,16 +2488,16 @@
         <v>5</v>
       </c>
       <c r="B7" s="1">
-        <v>0.5</v>
+        <v>0.970950594454668</v>
       </c>
       <c r="C7" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D7" s="1">
-        <v>344</v>
+        <v>488</v>
       </c>
       <c r="E7" s="1">
-        <v>0.02034883720930233</v>
+        <v>0.02254098360655738</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -2677,16 +2505,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>0.6000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C8" s="1">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D8" s="1">
-        <v>344</v>
+        <v>496</v>
       </c>
       <c r="E8" s="1">
-        <v>0.02034883720930233</v>
+        <v>0.02217741935483871</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -2694,16 +2522,16 @@
         <v>7</v>
       </c>
       <c r="B9" s="1">
-        <v>0.7000000000000001</v>
+        <v>1.156779649447039</v>
       </c>
       <c r="C9" s="1">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D9" s="1">
-        <v>344</v>
+        <v>519</v>
       </c>
       <c r="E9" s="1">
-        <v>0.02034883720930233</v>
+        <v>0.02312138728323699</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -2711,16 +2539,16 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>0.8</v>
+        <v>1.295461844238322</v>
       </c>
       <c r="C10" s="1">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D10" s="1">
-        <v>385</v>
+        <v>534</v>
       </c>
       <c r="E10" s="1">
-        <v>0.02077922077922078</v>
+        <v>0.02247191011235955</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -2728,16 +2556,16 @@
         <v>9</v>
       </c>
       <c r="B11" s="1">
-        <v>0.9</v>
+        <v>1.356779649447039</v>
       </c>
       <c r="C11" s="1">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="D11" s="1">
-        <v>418</v>
+        <v>548</v>
       </c>
       <c r="E11" s="1">
-        <v>0.01913875598086124</v>
+        <v>0.02372262773722628</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -2745,16 +2573,16 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>1.360964047443681</v>
       </c>
       <c r="C12" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D12" s="1">
-        <v>496</v>
+        <v>558</v>
       </c>
       <c r="E12" s="1">
-        <v>0.02217741935483871</v>
+        <v>0.02508960573476703</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -2762,16 +2590,16 @@
         <v>11</v>
       </c>
       <c r="B13" s="1">
-        <v>1.1</v>
+        <v>1.370950594454668</v>
       </c>
       <c r="C13" s="1">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D13" s="1">
-        <v>496</v>
+        <v>563</v>
       </c>
       <c r="E13" s="1">
-        <v>0.02217741935483871</v>
+        <v>0.02486678507992895</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -2779,16 +2607,16 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>1.2</v>
+        <v>1.485475297227334</v>
       </c>
       <c r="C14" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1">
-        <v>519</v>
+        <v>566</v>
       </c>
       <c r="E14" s="1">
-        <v>0.02312138728323699</v>
+        <v>0.0265017667844523</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -2796,16 +2624,16 @@
         <v>13</v>
       </c>
       <c r="B15" s="1">
-        <v>1.3</v>
+        <v>1.521928094887362</v>
       </c>
       <c r="C15" s="1">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1">
-        <v>534</v>
+        <v>568</v>
       </c>
       <c r="E15" s="1">
-        <v>0.02247191011235955</v>
+        <v>0.02640845070422535</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -2813,16 +2641,16 @@
         <v>14</v>
       </c>
       <c r="B16" s="1">
-        <v>1.4</v>
+        <v>1.570950594454668</v>
       </c>
       <c r="C16" s="1">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D16" s="1">
-        <v>563</v>
+        <v>584</v>
       </c>
       <c r="E16" s="1">
-        <v>0.02486678507992895</v>
+        <v>0.02910958904109589</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -2830,16 +2658,16 @@
         <v>15</v>
       </c>
       <c r="B17" s="1">
-        <v>1.5</v>
+        <v>1.685475297227334</v>
       </c>
       <c r="C17" s="1">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="D17" s="1">
-        <v>566</v>
+        <v>589</v>
       </c>
       <c r="E17" s="1">
-        <v>0.0265017667844523</v>
+        <v>0.03225806451612903</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -2847,16 +2675,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1">
-        <v>1.6</v>
+        <v>1.721928094887362</v>
       </c>
       <c r="C18" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D18" s="1">
-        <v>584</v>
+        <v>592</v>
       </c>
       <c r="E18" s="1">
-        <v>0.02910958904109589</v>
+        <v>0.03209459459459459</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -2864,16 +2692,16 @@
         <v>17</v>
       </c>
       <c r="B19" s="1">
-        <v>1.7</v>
+        <v>1.760964047443681</v>
       </c>
       <c r="C19" s="1">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D19" s="1">
-        <v>589</v>
+        <v>595</v>
       </c>
       <c r="E19" s="1">
-        <v>0.03225806451612903</v>
+        <v>0.03361344537815126</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -2881,7 +2709,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="1">
-        <v>1.8</v>
+        <v>1.770950594454668</v>
       </c>
       <c r="C20" s="1">
         <v>21</v>
@@ -2898,16 +2726,16 @@
         <v>19</v>
       </c>
       <c r="B21" s="1">
-        <v>1.9</v>
+        <v>1.846439344671015</v>
       </c>
       <c r="C21" s="1">
         <v>22</v>
       </c>
       <c r="D21" s="1">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E21" s="1">
-        <v>0.03654485049833887</v>
+        <v>0.03660565723793677</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -2915,16 +2743,16 @@
         <v>20</v>
       </c>
       <c r="B22" s="1">
-        <v>2</v>
+        <v>1.895461844238321</v>
       </c>
       <c r="C22" s="1">
         <v>22</v>
       </c>
       <c r="D22" s="1">
-        <v>606</v>
+        <v>602</v>
       </c>
       <c r="E22" s="1">
-        <v>0.03630363036303631</v>
+        <v>0.03654485049833887</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -2932,16 +2760,16 @@
         <v>21</v>
       </c>
       <c r="B23" s="1">
-        <v>2.1</v>
+        <v>1.960964047443681</v>
       </c>
       <c r="C23" s="1">
         <v>22</v>
       </c>
       <c r="D23" s="1">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E23" s="1">
-        <v>0.03624382207578253</v>
+        <v>0.03630363036303631</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -2949,16 +2777,16 @@
         <v>22</v>
       </c>
       <c r="B24" s="1">
-        <v>2.2</v>
+        <v>2.046439344671015</v>
       </c>
       <c r="C24" s="1">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D24" s="1">
-        <v>611</v>
+        <v>607</v>
       </c>
       <c r="E24" s="1">
-        <v>0.03927986906710311</v>
+        <v>0.03624382207578253</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -2966,16 +2794,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="1">
-        <v>2.3</v>
+        <v>2.121928094887362</v>
       </c>
       <c r="C25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D25" s="1">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E25" s="1">
-        <v>0.0392156862745098</v>
+        <v>0.03770491803278689</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -2983,16 +2811,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="1">
-        <v>2.4</v>
+        <v>2.170950594454668</v>
       </c>
       <c r="C26" s="1">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D26" s="1">
-        <v>618</v>
+        <v>611</v>
       </c>
       <c r="E26" s="1">
-        <v>0.04207119741100324</v>
+        <v>0.03927986906710311</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3000,16 +2828,16 @@
         <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>2.5</v>
+        <v>2.246439344671015</v>
       </c>
       <c r="C27" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D27" s="1">
-        <v>621</v>
+        <v>612</v>
       </c>
       <c r="E27" s="1">
-        <v>0.04347826086956522</v>
+        <v>0.0392156862745098</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3017,16 +2845,16 @@
         <v>26</v>
       </c>
       <c r="B28" s="1">
-        <v>2.6</v>
+        <v>2.321928094887362</v>
       </c>
       <c r="C28" s="1">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D28" s="1">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="E28" s="1">
-        <v>0.04340836012861737</v>
+        <v>0.03896103896103896</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3034,16 +2862,16 @@
         <v>27</v>
       </c>
       <c r="B29" s="1">
-        <v>2.7</v>
+        <v>2.370950594454668</v>
       </c>
       <c r="C29" s="1">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D29" s="1">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="E29" s="1">
-        <v>0.04487179487179487</v>
+        <v>0.04207119741100324</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3051,16 +2879,16 @@
         <v>28</v>
       </c>
       <c r="B30" s="1">
-        <v>2.8</v>
+        <v>2.446439344671015</v>
       </c>
       <c r="C30" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D30" s="1">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="E30" s="1">
-        <v>0.04487179487179487</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3068,15 +2896,49 @@
         <v>29</v>
       </c>
       <c r="B31" s="1">
-        <v>2.9</v>
+        <v>2.521928094887362</v>
       </c>
       <c r="C31" s="1">
+        <v>27</v>
+      </c>
+      <c r="D31" s="1">
+        <v>622</v>
+      </c>
+      <c r="E31" s="1">
+        <v>0.04340836012861737</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" s="2">
+        <v>30</v>
+      </c>
+      <c r="B32" s="1">
+        <v>2.646439344671015</v>
+      </c>
+      <c r="C32" s="1">
         <v>28</v>
       </c>
-      <c r="D31" s="1">
+      <c r="D32" s="1">
+        <v>624</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0.04487179487179487</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2">
+        <v>31</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2.846439344671015</v>
+      </c>
+      <c r="C33" s="1">
+        <v>28</v>
+      </c>
+      <c r="D33" s="1">
         <v>625</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E33" s="1">
         <v>0.0448</v>
       </c>
     </row>
